--- a/Data/hexmap.xlsx
+++ b/Data/hexmap.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/saireddy/Desktop/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{015A14CE-FD4F-C743-90A4-1146701ACA76}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{32E6BF19-06A5-A84C-85CE-C43CFFDD9187}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="38400" windowHeight="19620" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="510" uniqueCount="265">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="511" uniqueCount="266">
   <si>
     <t>State</t>
   </si>
@@ -800,31 +800,34 @@
     <t>Row</t>
   </si>
   <si>
+    <t>Position</t>
+  </si>
+  <si>
+    <t>Left</t>
+  </si>
+  <si>
+    <t>Right</t>
+  </si>
+  <si>
+    <t>R</t>
+  </si>
+  <si>
+    <t>D</t>
+  </si>
+  <si>
+    <t>I</t>
+  </si>
+  <si>
+    <t>Unknown</t>
+  </si>
+  <si>
+    <t>Ideology Score</t>
+  </si>
+  <si>
     <t>Column</t>
   </si>
   <si>
-    <t>Position</t>
-  </si>
-  <si>
-    <t>Left</t>
-  </si>
-  <si>
-    <t>Right</t>
-  </si>
-  <si>
-    <t>R</t>
-  </si>
-  <si>
-    <t>D</t>
-  </si>
-  <si>
-    <t>I</t>
-  </si>
-  <si>
-    <t>Unknown</t>
-  </si>
-  <si>
-    <t>Ideology Score</t>
+    <t>Column_orig</t>
   </si>
 </sst>
 </file>
@@ -1205,10 +1208,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L101"/>
+  <dimension ref="A1:M101"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E1" sqref="E1"/>
+      <selection activeCell="I12" sqref="I12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1218,13 +1221,13 @@
     <col min="5" max="5" width="16.5" style="2" customWidth="1"/>
     <col min="6" max="6" width="16.5" customWidth="1"/>
     <col min="7" max="7" width="22.5" customWidth="1"/>
-    <col min="8" max="8" width="19.6640625" customWidth="1"/>
-    <col min="9" max="9" width="19.1640625" customWidth="1"/>
-    <col min="10" max="10" width="19.83203125" customWidth="1"/>
-    <col min="11" max="11" width="192" customWidth="1"/>
+    <col min="8" max="9" width="19.6640625" customWidth="1"/>
+    <col min="10" max="10" width="19.1640625" customWidth="1"/>
+    <col min="11" max="11" width="19.83203125" customWidth="1"/>
+    <col min="12" max="12" width="192" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>253</v>
       </c>
@@ -1235,10 +1238,10 @@
         <v>3</v>
       </c>
       <c r="D1" s="3" t="s">
+        <v>262</v>
+      </c>
+      <c r="E1" s="7" t="s">
         <v>263</v>
-      </c>
-      <c r="E1" s="7" t="s">
-        <v>264</v>
       </c>
       <c r="F1" s="3" t="s">
         <v>1</v>
@@ -1247,20 +1250,23 @@
         <v>255</v>
       </c>
       <c r="H1" t="s">
+        <v>264</v>
+      </c>
+      <c r="I1" t="s">
+        <v>265</v>
+      </c>
+      <c r="J1" t="s">
         <v>256</v>
       </c>
-      <c r="I1" t="s">
-        <v>257</v>
-      </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>254</v>
       </c>
-      <c r="L1" s="3"/>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M1" s="3"/>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>109</v>
       </c>
@@ -1277,7 +1283,7 @@
         <v>55.52092035880505</v>
       </c>
       <c r="F2" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="G2">
         <v>6</v>
@@ -1285,17 +1291,20 @@
       <c r="H2" s="4">
         <v>7.25</v>
       </c>
-      <c r="I2" t="s">
-        <v>258</v>
+      <c r="I2" s="4">
+        <v>7.5</v>
       </c>
       <c r="J2" t="s">
+        <v>257</v>
+      </c>
+      <c r="K2" t="s">
         <v>110</v>
       </c>
-      <c r="K2" t="s">
+      <c r="L2" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>175</v>
       </c>
@@ -1312,25 +1321,28 @@
         <v>64.053568920587139</v>
       </c>
       <c r="F3" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="G3">
         <v>6</v>
       </c>
       <c r="H3" s="4">
-        <v>7.25</v>
-      </c>
-      <c r="I3" t="s">
-        <v>259</v>
+        <v>7.75</v>
+      </c>
+      <c r="I3" s="4">
+        <v>7.5</v>
       </c>
       <c r="J3" t="s">
+        <v>258</v>
+      </c>
+      <c r="K3" t="s">
         <v>110</v>
       </c>
-      <c r="K3" t="s">
+      <c r="L3" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>76</v>
       </c>
@@ -1347,7 +1359,7 @@
         <v>71.028030442833582</v>
       </c>
       <c r="F4" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="G4">
         <v>0</v>
@@ -1355,17 +1367,20 @@
       <c r="H4" s="4">
         <v>0.25</v>
       </c>
-      <c r="I4" t="s">
-        <v>258</v>
+      <c r="I4" s="4">
+        <v>0.5</v>
       </c>
       <c r="J4" t="s">
+        <v>257</v>
+      </c>
+      <c r="K4" t="s">
         <v>77</v>
       </c>
-      <c r="K4" t="s">
+      <c r="L4" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>101</v>
       </c>
@@ -1382,25 +1397,28 @@
         <v>50.078104322500415</v>
       </c>
       <c r="F5" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="G5">
         <v>0</v>
       </c>
       <c r="H5" s="4">
-        <v>0.25</v>
-      </c>
-      <c r="I5" t="s">
-        <v>259</v>
+        <v>0.75</v>
+      </c>
+      <c r="I5" s="4">
+        <v>0.5</v>
       </c>
       <c r="J5" t="s">
+        <v>258</v>
+      </c>
+      <c r="K5" t="s">
         <v>77</v>
       </c>
-      <c r="K5" t="s">
+      <c r="L5" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>224</v>
       </c>
@@ -1417,7 +1435,7 @@
         <v>69.078202752313871</v>
       </c>
       <c r="F6" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="G6">
         <v>5</v>
@@ -1425,17 +1443,20 @@
       <c r="H6" s="4">
         <v>2.75</v>
       </c>
-      <c r="I6" t="s">
-        <v>258</v>
+      <c r="I6" s="4">
+        <v>3</v>
       </c>
       <c r="J6" t="s">
+        <v>257</v>
+      </c>
+      <c r="K6" t="s">
         <v>225</v>
       </c>
-      <c r="K6" t="s">
+      <c r="L6" t="s">
         <v>226</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>239</v>
       </c>
@@ -1452,25 +1473,28 @@
         <v>75.071581701476347</v>
       </c>
       <c r="F7" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="G7">
         <v>5</v>
       </c>
       <c r="H7" s="4">
-        <v>2.75</v>
-      </c>
-      <c r="I7" t="s">
-        <v>259</v>
+        <v>3.25</v>
+      </c>
+      <c r="I7" s="4">
+        <v>3</v>
       </c>
       <c r="J7" t="s">
+        <v>258</v>
+      </c>
+      <c r="K7" t="s">
         <v>225</v>
       </c>
-      <c r="K7" t="s">
+      <c r="L7" t="s">
         <v>240</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>67</v>
       </c>
@@ -1487,7 +1511,7 @@
         <v>90.492661353108033</v>
       </c>
       <c r="F8" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="G8">
         <v>5</v>
@@ -1495,17 +1519,20 @@
       <c r="H8" s="4">
         <v>5.75</v>
       </c>
-      <c r="I8" t="s">
-        <v>258</v>
+      <c r="I8" s="4">
+        <v>6</v>
       </c>
       <c r="J8" t="s">
+        <v>257</v>
+      </c>
+      <c r="K8" t="s">
         <v>68</v>
       </c>
-      <c r="K8" t="s">
+      <c r="L8" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>117</v>
       </c>
@@ -1522,25 +1549,28 @@
         <v>84.01621855792358</v>
       </c>
       <c r="F9" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="G9">
         <v>5</v>
       </c>
       <c r="H9" s="4">
-        <v>5.75</v>
-      </c>
-      <c r="I9" t="s">
-        <v>259</v>
+        <v>6.25</v>
+      </c>
+      <c r="I9" s="4">
+        <v>6</v>
       </c>
       <c r="J9" t="s">
+        <v>258</v>
+      </c>
+      <c r="K9" t="s">
         <v>68</v>
       </c>
-      <c r="K9" t="s">
+      <c r="L9" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>165</v>
       </c>
@@ -1557,7 +1587,7 @@
         <v>0</v>
       </c>
       <c r="F10" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="G10">
         <v>5</v>
@@ -1565,17 +1595,20 @@
       <c r="H10" s="4">
         <v>1.75</v>
       </c>
-      <c r="I10" t="s">
-        <v>258</v>
+      <c r="I10" s="4">
+        <v>2</v>
       </c>
       <c r="J10" t="s">
+        <v>257</v>
+      </c>
+      <c r="K10" t="s">
         <v>166</v>
       </c>
-      <c r="K10" t="s">
+      <c r="L10" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>187</v>
       </c>
@@ -1592,25 +1625,28 @@
         <v>21.183636975356791</v>
       </c>
       <c r="F11" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="G11">
         <v>5</v>
       </c>
       <c r="H11" s="4">
-        <v>1.75</v>
-      </c>
-      <c r="I11" t="s">
-        <v>259</v>
+        <v>2.25</v>
+      </c>
+      <c r="I11" s="4">
+        <v>2</v>
       </c>
       <c r="J11" t="s">
+        <v>258</v>
+      </c>
+      <c r="K11" t="s">
         <v>166</v>
       </c>
-      <c r="K11" t="s">
+      <c r="L11" t="s">
         <v>188</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>64</v>
       </c>
@@ -1627,7 +1663,7 @@
         <v>72.871369796022364</v>
       </c>
       <c r="F12" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="G12">
         <v>4</v>
@@ -1635,17 +1671,20 @@
       <c r="H12" s="4">
         <v>3.25</v>
       </c>
-      <c r="I12" t="s">
-        <v>258</v>
+      <c r="I12" s="4">
+        <v>3.5</v>
       </c>
       <c r="J12" t="s">
+        <v>257</v>
+      </c>
+      <c r="K12" t="s">
         <v>65</v>
       </c>
-      <c r="K12" t="s">
+      <c r="L12" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>134</v>
       </c>
@@ -1662,25 +1701,28 @@
         <v>31.960931368501221</v>
       </c>
       <c r="F13" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="G13">
         <v>4</v>
       </c>
       <c r="H13" s="4">
-        <v>3.25</v>
-      </c>
-      <c r="I13" t="s">
-        <v>259</v>
+        <v>3.75</v>
+      </c>
+      <c r="I13" s="4">
+        <v>3.5</v>
       </c>
       <c r="J13" t="s">
+        <v>258</v>
+      </c>
+      <c r="K13" t="s">
         <v>65</v>
       </c>
-      <c r="K13" t="s">
+      <c r="L13" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>143</v>
       </c>
@@ -1697,7 +1739,7 @@
         <v>12.22425807417244</v>
       </c>
       <c r="F14" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="G14">
         <v>3</v>
@@ -1705,17 +1747,20 @@
       <c r="H14" s="4">
         <v>10.75</v>
       </c>
-      <c r="I14" t="s">
-        <v>258</v>
+      <c r="I14" s="4">
+        <v>11</v>
       </c>
       <c r="J14" t="s">
+        <v>257</v>
+      </c>
+      <c r="K14" t="s">
         <v>144</v>
       </c>
-      <c r="K14" t="s">
+      <c r="L14" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>205</v>
       </c>
@@ -1732,25 +1777,28 @@
         <v>20.12552611337146</v>
       </c>
       <c r="F15" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="G15">
         <v>3</v>
       </c>
       <c r="H15" s="4">
-        <v>10.75</v>
-      </c>
-      <c r="I15" t="s">
-        <v>259</v>
+        <v>11.25</v>
+      </c>
+      <c r="I15" s="4">
+        <v>11</v>
       </c>
       <c r="J15" t="s">
+        <v>258</v>
+      </c>
+      <c r="K15" t="s">
         <v>144</v>
       </c>
-      <c r="K15" t="s">
+      <c r="L15" t="s">
         <v>206</v>
       </c>
     </row>
-    <row r="16" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>61</v>
       </c>
@@ -1767,7 +1815,7 @@
         <v>44.26664154380726</v>
       </c>
       <c r="F16" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="G16" s="5">
         <v>4</v>
@@ -1775,17 +1823,20 @@
       <c r="H16" s="6">
         <v>9.25</v>
       </c>
-      <c r="I16" t="s">
-        <v>258</v>
+      <c r="I16" s="4">
+        <v>9.5</v>
       </c>
       <c r="J16" t="s">
+        <v>257</v>
+      </c>
+      <c r="K16" t="s">
         <v>62</v>
       </c>
-      <c r="K16" t="s">
+      <c r="L16" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="17" spans="1:11" ht="16" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>185</v>
       </c>
@@ -1802,25 +1853,28 @@
         <v>33.914632659012874</v>
       </c>
       <c r="F17" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="G17" s="5">
         <v>4</v>
       </c>
       <c r="H17" s="6">
-        <v>9.25</v>
-      </c>
-      <c r="I17" t="s">
-        <v>259</v>
+        <v>9.75</v>
+      </c>
+      <c r="I17" s="4">
+        <v>9.5</v>
       </c>
       <c r="J17" t="s">
+        <v>258</v>
+      </c>
+      <c r="K17" t="s">
         <v>62</v>
       </c>
-      <c r="K17" t="s">
+      <c r="L17" t="s">
         <v>186</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>146</v>
       </c>
@@ -1837,7 +1891,7 @@
         <v>88.308179003180612</v>
       </c>
       <c r="F18" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="G18">
         <v>8</v>
@@ -1845,17 +1899,20 @@
       <c r="H18" s="4">
         <v>8.25</v>
       </c>
-      <c r="I18" t="s">
-        <v>258</v>
+      <c r="I18" s="4">
+        <v>8.5</v>
       </c>
       <c r="J18" t="s">
+        <v>257</v>
+      </c>
+      <c r="K18" t="s">
         <v>147</v>
       </c>
-      <c r="K18" t="s">
+      <c r="L18" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>243</v>
       </c>
@@ -1872,25 +1929,28 @@
         <v>83.052498569273524</v>
       </c>
       <c r="F19" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="G19">
         <v>8</v>
       </c>
       <c r="H19" s="4">
-        <v>8.25</v>
-      </c>
-      <c r="I19" t="s">
-        <v>259</v>
+        <v>8.75</v>
+      </c>
+      <c r="I19" s="4">
+        <v>8.5</v>
       </c>
       <c r="J19" t="s">
+        <v>258</v>
+      </c>
+      <c r="K19" t="s">
         <v>147</v>
       </c>
-      <c r="K19" t="s">
+      <c r="L19" t="s">
         <v>244</v>
       </c>
     </row>
-    <row r="20" spans="1:11" ht="16" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>79</v>
       </c>
@@ -1907,7 +1967,7 @@
         <v>86.792093689500462</v>
       </c>
       <c r="F20" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="G20" s="5">
         <v>7</v>
@@ -1915,17 +1975,20 @@
       <c r="H20" s="6">
         <v>7.75</v>
       </c>
-      <c r="I20" t="s">
-        <v>258</v>
+      <c r="I20" s="4">
+        <v>8</v>
       </c>
       <c r="J20" t="s">
+        <v>257</v>
+      </c>
+      <c r="K20" t="s">
         <v>80</v>
       </c>
-      <c r="K20" t="s">
+      <c r="L20" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="21" spans="1:11" ht="16" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>251</v>
       </c>
@@ -1942,25 +2005,28 @@
         <v>0</v>
       </c>
       <c r="F21" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="G21" s="5">
         <v>7</v>
       </c>
       <c r="H21" s="6">
-        <v>7.75</v>
-      </c>
-      <c r="I21" t="s">
-        <v>259</v>
+        <v>8.25</v>
+      </c>
+      <c r="I21" s="4">
+        <v>8</v>
       </c>
       <c r="J21" t="s">
+        <v>258</v>
+      </c>
+      <c r="K21" t="s">
         <v>80</v>
       </c>
-      <c r="K21" t="s">
+      <c r="L21" t="s">
         <v>252</v>
       </c>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>160</v>
       </c>
@@ -1977,7 +2043,7 @@
         <v>22.352743291867711</v>
       </c>
       <c r="F22" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="G22">
         <v>8</v>
@@ -1985,17 +2051,20 @@
       <c r="H22" s="4">
         <v>0.25</v>
       </c>
-      <c r="I22" t="s">
-        <v>258</v>
+      <c r="I22" s="4">
+        <v>0.5</v>
       </c>
       <c r="J22" t="s">
+        <v>257</v>
+      </c>
+      <c r="K22" t="s">
         <v>161</v>
       </c>
-      <c r="K22" t="s">
+      <c r="L22" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>207</v>
       </c>
@@ -2012,25 +2081,28 @@
         <v>9.0611309462933143</v>
       </c>
       <c r="F23" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="G23">
         <v>8</v>
       </c>
       <c r="H23" s="4">
-        <v>0.25</v>
-      </c>
-      <c r="I23" t="s">
-        <v>259</v>
+        <v>0.75</v>
+      </c>
+      <c r="I23" s="4">
+        <v>0.5</v>
       </c>
       <c r="J23" t="s">
+        <v>258</v>
+      </c>
+      <c r="K23" t="s">
         <v>161</v>
       </c>
-      <c r="K23" t="s">
+      <c r="L23" t="s">
         <v>208</v>
       </c>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>52</v>
       </c>
@@ -2047,7 +2119,7 @@
         <v>88.705430573521753</v>
       </c>
       <c r="F24" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="G24">
         <v>3</v>
@@ -2055,17 +2127,20 @@
       <c r="H24" s="4">
         <v>1.75</v>
       </c>
-      <c r="I24" t="s">
-        <v>258</v>
+      <c r="I24" s="4">
+        <v>2</v>
       </c>
       <c r="J24" t="s">
+        <v>257</v>
+      </c>
+      <c r="K24" t="s">
         <v>53</v>
       </c>
-      <c r="K24" t="s">
+      <c r="L24" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>94</v>
       </c>
@@ -2082,25 +2157,28 @@
         <v>83.805586754613714</v>
       </c>
       <c r="F25" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="G25">
         <v>3</v>
       </c>
       <c r="H25" s="4">
-        <v>1.75</v>
-      </c>
-      <c r="I25" t="s">
-        <v>259</v>
+        <v>2.25</v>
+      </c>
+      <c r="I25" s="4">
+        <v>2</v>
       </c>
       <c r="J25" t="s">
+        <v>258</v>
+      </c>
+      <c r="K25" t="s">
         <v>53</v>
       </c>
-      <c r="K25" t="s">
+      <c r="L25" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>13</v>
       </c>
@@ -2117,7 +2195,7 @@
         <v>15.386643012668898</v>
       </c>
       <c r="F26" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="G26">
         <v>3</v>
@@ -2125,17 +2203,20 @@
       <c r="H26" s="4">
         <v>5.75</v>
       </c>
-      <c r="I26" t="s">
-        <v>258</v>
+      <c r="I26" s="4">
+        <v>6</v>
       </c>
       <c r="J26" t="s">
+        <v>257</v>
+      </c>
+      <c r="K26" t="s">
         <v>14</v>
       </c>
-      <c r="K26" t="s">
+      <c r="L26" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>163</v>
       </c>
@@ -2152,25 +2233,28 @@
         <v>26.363236342385221</v>
       </c>
       <c r="F27" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="G27">
         <v>3</v>
       </c>
       <c r="H27" s="4">
-        <v>5.75</v>
-      </c>
-      <c r="I27" t="s">
-        <v>259</v>
+        <v>6.25</v>
+      </c>
+      <c r="I27" s="4">
+        <v>6</v>
       </c>
       <c r="J27" t="s">
+        <v>258</v>
+      </c>
+      <c r="K27" t="s">
         <v>14</v>
       </c>
-      <c r="K27" t="s">
+      <c r="L27" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>136</v>
       </c>
@@ -2187,7 +2271,7 @@
         <v>74.228066818981674</v>
       </c>
       <c r="F28" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="G28">
         <v>3</v>
@@ -2195,17 +2279,20 @@
       <c r="H28" s="4">
         <v>6.75</v>
       </c>
-      <c r="I28" t="s">
-        <v>258</v>
+      <c r="I28" s="4">
+        <v>7</v>
       </c>
       <c r="J28" t="s">
+        <v>257</v>
+      </c>
+      <c r="K28" t="s">
         <v>137</v>
       </c>
-      <c r="K28" t="s">
+      <c r="L28" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>245</v>
       </c>
@@ -2222,25 +2309,28 @@
         <v>91.46603150533096</v>
       </c>
       <c r="F29" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="G29">
         <v>3</v>
       </c>
       <c r="H29" s="4">
-        <v>6.75</v>
-      </c>
-      <c r="I29" t="s">
-        <v>259</v>
+        <v>7.25</v>
+      </c>
+      <c r="I29" s="4">
+        <v>7</v>
       </c>
       <c r="J29" t="s">
+        <v>258</v>
+      </c>
+      <c r="K29" t="s">
         <v>137</v>
       </c>
-      <c r="K29" t="s">
+      <c r="L29" t="s">
         <v>246</v>
       </c>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>82</v>
       </c>
@@ -2257,7 +2347,7 @@
         <v>96.210853941600718</v>
       </c>
       <c r="F30" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="G30">
         <v>3</v>
@@ -2265,17 +2355,20 @@
       <c r="H30" s="4">
         <v>4.75</v>
       </c>
-      <c r="I30" t="s">
-        <v>258</v>
+      <c r="I30" s="4">
+        <v>5</v>
       </c>
       <c r="J30" t="s">
+        <v>257</v>
+      </c>
+      <c r="K30" t="s">
         <v>83</v>
       </c>
-      <c r="K30" t="s">
+      <c r="L30" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>96</v>
       </c>
@@ -2292,25 +2385,28 @@
         <v>70.616046488742342</v>
       </c>
       <c r="F31" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="G31">
         <v>3</v>
       </c>
       <c r="H31" s="4">
-        <v>4.75</v>
-      </c>
-      <c r="I31" t="s">
-        <v>259</v>
+        <v>5.25</v>
+      </c>
+      <c r="I31" s="4">
+        <v>5</v>
       </c>
       <c r="J31" t="s">
+        <v>258</v>
+      </c>
+      <c r="K31" t="s">
         <v>83</v>
       </c>
-      <c r="K31" t="s">
+      <c r="L31" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>31</v>
       </c>
@@ -2327,7 +2423,7 @@
         <v>85.40789779102235</v>
       </c>
       <c r="F32" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="G32">
         <v>5</v>
@@ -2335,17 +2431,20 @@
       <c r="H32" s="4">
         <v>4.75</v>
       </c>
-      <c r="I32" t="s">
-        <v>258</v>
+      <c r="I32" s="4">
+        <v>5</v>
       </c>
       <c r="J32" t="s">
+        <v>257</v>
+      </c>
+      <c r="K32" t="s">
         <v>32</v>
       </c>
-      <c r="K32" t="s">
+      <c r="L32" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>121</v>
       </c>
@@ -2362,25 +2461,28 @@
         <v>79.258763918173642</v>
       </c>
       <c r="F33" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="G33">
         <v>5</v>
       </c>
       <c r="H33" s="4">
-        <v>4.75</v>
-      </c>
-      <c r="I33" t="s">
-        <v>259</v>
+        <v>5.25</v>
+      </c>
+      <c r="I33" s="4">
+        <v>5</v>
       </c>
       <c r="J33" t="s">
+        <v>258</v>
+      </c>
+      <c r="K33" t="s">
         <v>32</v>
       </c>
-      <c r="K33" t="s">
+      <c r="L33" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="34" spans="1:11" ht="16" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>25</v>
       </c>
@@ -2397,7 +2499,7 @@
         <v>64.43790697741278</v>
       </c>
       <c r="F34" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="G34" s="5">
         <v>4</v>
@@ -2405,17 +2507,20 @@
       <c r="H34" s="6">
         <v>6.25</v>
       </c>
-      <c r="I34" t="s">
-        <v>258</v>
+      <c r="I34" s="4">
+        <v>6.5</v>
       </c>
       <c r="J34" t="s">
+        <v>257</v>
+      </c>
+      <c r="K34" t="s">
         <v>26</v>
       </c>
-      <c r="K34" t="s">
+      <c r="L34" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="35" spans="1:11" ht="16" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>149</v>
       </c>
@@ -2432,25 +2537,28 @@
         <v>64.55265008634656</v>
       </c>
       <c r="F35" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="G35" s="5">
         <v>4</v>
       </c>
       <c r="H35" s="6">
-        <v>6.25</v>
-      </c>
-      <c r="I35" t="s">
-        <v>259</v>
+        <v>6.75</v>
+      </c>
+      <c r="I35" s="4">
+        <v>6.5</v>
       </c>
       <c r="J35" t="s">
+        <v>258</v>
+      </c>
+      <c r="K35" t="s">
         <v>26</v>
       </c>
-      <c r="K35" t="s">
+      <c r="L35" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>43</v>
       </c>
@@ -2467,7 +2575,7 @@
         <v>76.290718918460314</v>
       </c>
       <c r="F36" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="G36">
         <v>6</v>
@@ -2475,17 +2583,20 @@
       <c r="H36" s="4">
         <v>5.25</v>
       </c>
-      <c r="I36" t="s">
-        <v>258</v>
+      <c r="I36" s="4">
+        <v>5.5</v>
       </c>
       <c r="J36" t="s">
+        <v>257</v>
+      </c>
+      <c r="K36" t="s">
         <v>44</v>
       </c>
-      <c r="K36" t="s">
+      <c r="L36" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>168</v>
       </c>
@@ -2502,25 +2613,28 @@
         <v>83.958016249208086</v>
       </c>
       <c r="F37" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="G37">
         <v>6</v>
       </c>
       <c r="H37" s="4">
-        <v>5.25</v>
-      </c>
-      <c r="I37" t="s">
-        <v>259</v>
+        <v>5.75</v>
+      </c>
+      <c r="I37" s="4">
+        <v>5.5</v>
       </c>
       <c r="J37" t="s">
+        <v>258</v>
+      </c>
+      <c r="K37" t="s">
         <v>44</v>
       </c>
-      <c r="K37" t="s">
+      <c r="L37" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>7</v>
       </c>
@@ -2537,7 +2651,7 @@
         <v>55.562976942043754</v>
       </c>
       <c r="F38" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="G38">
         <v>0</v>
@@ -2545,17 +2659,20 @@
       <c r="H38" s="4">
         <v>11.25</v>
       </c>
-      <c r="I38" t="s">
-        <v>258</v>
+      <c r="I38" s="4">
+        <v>11.5</v>
       </c>
       <c r="J38" t="s">
+        <v>257</v>
+      </c>
+      <c r="K38" t="s">
         <v>8</v>
       </c>
-      <c r="K38" t="s">
+      <c r="L38" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>229</v>
       </c>
@@ -2572,25 +2689,28 @@
         <v>44.695281451223529</v>
       </c>
       <c r="F39" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="G39">
         <v>0</v>
       </c>
       <c r="H39" s="4">
-        <v>11.25</v>
-      </c>
-      <c r="I39" t="s">
-        <v>259</v>
+        <v>11.75</v>
+      </c>
+      <c r="I39" s="4">
+        <v>11.5</v>
       </c>
       <c r="J39" t="s">
+        <v>258</v>
+      </c>
+      <c r="K39" t="s">
         <v>8</v>
       </c>
-      <c r="K39" t="s">
+      <c r="L39" t="s">
         <v>230</v>
       </c>
     </row>
-    <row r="40" spans="1:11" ht="16" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>129</v>
       </c>
@@ -2607,7 +2727,7 @@
         <v>15.665908699197701</v>
       </c>
       <c r="F40" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="G40" s="5">
         <v>4</v>
@@ -2615,17 +2735,20 @@
       <c r="H40" s="6">
         <v>8.25</v>
       </c>
-      <c r="I40" t="s">
-        <v>258</v>
+      <c r="I40" s="4">
+        <v>8.5</v>
       </c>
       <c r="J40" t="s">
+        <v>257</v>
+      </c>
+      <c r="K40" t="s">
         <v>130</v>
       </c>
-      <c r="K40" t="s">
+      <c r="L40" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="41" spans="1:11" ht="16" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>197</v>
       </c>
@@ -2642,25 +2765,28 @@
         <v>27.534436178906716</v>
       </c>
       <c r="F41" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="G41" s="5">
         <v>4</v>
       </c>
       <c r="H41" s="6">
-        <v>8.25</v>
-      </c>
-      <c r="I41" t="s">
-        <v>259</v>
+        <v>8.75</v>
+      </c>
+      <c r="I41" s="4">
+        <v>8.5</v>
       </c>
       <c r="J41" t="s">
+        <v>258</v>
+      </c>
+      <c r="K41" t="s">
         <v>130</v>
       </c>
-      <c r="K41" t="s">
+      <c r="L41" t="s">
         <v>198</v>
       </c>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>37</v>
       </c>
@@ -2677,7 +2803,7 @@
         <v>10.34894258265648</v>
       </c>
       <c r="F42" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="G42">
         <v>2</v>
@@ -2685,17 +2811,20 @@
       <c r="H42" s="4">
         <v>10.25</v>
       </c>
-      <c r="I42" t="s">
-        <v>258</v>
+      <c r="I42" s="4">
+        <v>10.5</v>
       </c>
       <c r="J42" t="s">
+        <v>257</v>
+      </c>
+      <c r="K42" t="s">
         <v>38</v>
       </c>
-      <c r="K42" t="s">
+      <c r="L42" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>227</v>
       </c>
@@ -2712,25 +2841,28 @@
         <v>25.629409810475302</v>
       </c>
       <c r="F43" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="G43">
         <v>2</v>
       </c>
       <c r="H43" s="4">
-        <v>10.25</v>
-      </c>
-      <c r="I43" t="s">
-        <v>259</v>
+        <v>10.75</v>
+      </c>
+      <c r="I43" s="4">
+        <v>10.5</v>
       </c>
       <c r="J43" t="s">
+        <v>258</v>
+      </c>
+      <c r="K43" t="s">
         <v>38</v>
       </c>
-      <c r="K43" t="s">
+      <c r="L43" t="s">
         <v>228</v>
       </c>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>46</v>
       </c>
@@ -2747,7 +2879,7 @@
         <v>42.443813063158089</v>
       </c>
       <c r="F44" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="G44">
         <v>2</v>
@@ -2755,17 +2887,20 @@
       <c r="H44" s="4">
         <v>7.25</v>
       </c>
-      <c r="I44" t="s">
-        <v>258</v>
+      <c r="I44" s="4">
+        <v>7.5</v>
       </c>
       <c r="J44" t="s">
+        <v>257</v>
+      </c>
+      <c r="K44" t="s">
         <v>47</v>
       </c>
-      <c r="K44" t="s">
+      <c r="L44" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>189</v>
       </c>
@@ -2782,25 +2917,28 @@
         <v>22.170386105894821</v>
       </c>
       <c r="F45" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="G45">
         <v>2</v>
       </c>
       <c r="H45" s="4">
-        <v>7.25</v>
-      </c>
-      <c r="I45" t="s">
-        <v>259</v>
+        <v>7.75</v>
+      </c>
+      <c r="I45" s="4">
+        <v>7.5</v>
       </c>
       <c r="J45" t="s">
+        <v>258</v>
+      </c>
+      <c r="K45" t="s">
         <v>47</v>
       </c>
-      <c r="K45" t="s">
+      <c r="L45" t="s">
         <v>190</v>
       </c>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>177</v>
       </c>
@@ -2817,7 +2955,7 @@
         <v>17.920303180850439</v>
       </c>
       <c r="F46" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="G46">
         <v>2</v>
@@ -2825,17 +2963,20 @@
       <c r="H46" s="4">
         <v>4.25</v>
       </c>
-      <c r="I46" t="s">
-        <v>258</v>
+      <c r="I46" s="4">
+        <v>4.5</v>
       </c>
       <c r="J46" t="s">
+        <v>257</v>
+      </c>
+      <c r="K46" t="s">
         <v>178</v>
       </c>
-      <c r="K46" t="s">
+      <c r="L46" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>211</v>
       </c>
@@ -2852,25 +2993,28 @@
         <v>13.804393642502641</v>
       </c>
       <c r="F47" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="G47">
         <v>2</v>
       </c>
       <c r="H47" s="4">
-        <v>4.25</v>
-      </c>
-      <c r="I47" t="s">
-        <v>259</v>
+        <v>4.75</v>
+      </c>
+      <c r="I47" s="4">
+        <v>4.5</v>
       </c>
       <c r="J47" t="s">
+        <v>258</v>
+      </c>
+      <c r="K47" t="s">
         <v>178</v>
       </c>
-      <c r="K47" t="s">
+      <c r="L47" t="s">
         <v>212</v>
       </c>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>180</v>
       </c>
@@ -2887,7 +3031,7 @@
         <v>87.185726409126204</v>
       </c>
       <c r="F48" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="G48">
         <v>6</v>
@@ -2895,17 +3039,20 @@
       <c r="H48" s="4">
         <v>6.25</v>
       </c>
-      <c r="I48" t="s">
-        <v>258</v>
+      <c r="I48" s="4">
+        <v>6.5</v>
       </c>
       <c r="J48" t="s">
+        <v>257</v>
+      </c>
+      <c r="K48" t="s">
         <v>181</v>
       </c>
-      <c r="K48" t="s">
+      <c r="L48" t="s">
         <v>182</v>
       </c>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>203</v>
       </c>
@@ -2922,25 +3069,28 @@
         <v>84.449227193326934</v>
       </c>
       <c r="F49" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="G49">
         <v>6</v>
       </c>
       <c r="H49" s="4">
-        <v>6.25</v>
-      </c>
-      <c r="I49" t="s">
-        <v>259</v>
+        <v>6.75</v>
+      </c>
+      <c r="I49" s="4">
+        <v>6.5</v>
       </c>
       <c r="J49" t="s">
+        <v>258</v>
+      </c>
+      <c r="K49" t="s">
         <v>181</v>
       </c>
-      <c r="K49" t="s">
+      <c r="L49" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="50" spans="1:11" ht="16" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
         <v>114</v>
       </c>
@@ -2957,7 +3107,7 @@
         <v>82.722933544712035</v>
       </c>
       <c r="F50" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="G50" s="5">
         <v>4</v>
@@ -2965,17 +3115,20 @@
       <c r="H50" s="6">
         <v>5.25</v>
       </c>
-      <c r="I50" t="s">
-        <v>258</v>
+      <c r="I50" s="4">
+        <v>5.5</v>
       </c>
       <c r="J50" t="s">
+        <v>257</v>
+      </c>
+      <c r="K50" t="s">
         <v>115</v>
       </c>
-      <c r="K50" t="s">
+      <c r="L50" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="51" spans="1:11" ht="16" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
         <v>247</v>
       </c>
@@ -2992,25 +3145,28 @@
         <v>80.419303781369607</v>
       </c>
       <c r="F51" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="G51" s="5">
         <v>4</v>
       </c>
       <c r="H51" s="6">
-        <v>5.25</v>
-      </c>
-      <c r="I51" t="s">
-        <v>259</v>
+        <v>5.75</v>
+      </c>
+      <c r="I51" s="4">
+        <v>5.5</v>
       </c>
       <c r="J51" t="s">
+        <v>258</v>
+      </c>
+      <c r="K51" t="s">
         <v>115</v>
       </c>
-      <c r="K51" t="s">
+      <c r="L51" t="s">
         <v>248</v>
       </c>
     </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
         <v>70</v>
       </c>
@@ -3027,7 +3183,7 @@
         <v>83.639479129403497</v>
       </c>
       <c r="F52" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="G52">
         <v>2</v>
@@ -3035,17 +3191,20 @@
       <c r="H52" s="4">
         <v>2.25</v>
       </c>
-      <c r="I52" t="s">
-        <v>258</v>
+      <c r="I52" s="4">
+        <v>2.5</v>
       </c>
       <c r="J52" t="s">
+        <v>257</v>
+      </c>
+      <c r="K52" t="s">
         <v>71</v>
       </c>
-      <c r="K52" t="s">
+      <c r="L52" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
         <v>213</v>
       </c>
@@ -3062,25 +3221,28 @@
         <v>47.574313570795866</v>
       </c>
       <c r="F53" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="G53">
         <v>2</v>
       </c>
       <c r="H53" s="4">
-        <v>2.25</v>
-      </c>
-      <c r="I53" t="s">
-        <v>259</v>
+        <v>2.75</v>
+      </c>
+      <c r="I53" s="4">
+        <v>2.5</v>
       </c>
       <c r="J53" t="s">
+        <v>258</v>
+      </c>
+      <c r="K53" t="s">
         <v>71</v>
       </c>
-      <c r="K53" t="s">
+      <c r="L53" t="s">
         <v>214</v>
       </c>
     </row>
-    <row r="54" spans="1:11" ht="16" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
         <v>91</v>
       </c>
@@ -3097,7 +3259,7 @@
         <v>74.008070637151349</v>
       </c>
       <c r="F54" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="G54" s="5">
         <v>4</v>
@@ -3105,17 +3267,20 @@
       <c r="H54" s="6">
         <v>4.25</v>
       </c>
-      <c r="I54" t="s">
-        <v>258</v>
+      <c r="I54" s="4">
+        <v>4.5</v>
       </c>
       <c r="J54" t="s">
+        <v>257</v>
+      </c>
+      <c r="K54" t="s">
         <v>92</v>
       </c>
-      <c r="K54" t="s">
+      <c r="L54" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="55" spans="1:11" ht="16" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
         <v>233</v>
       </c>
@@ -3132,25 +3297,28 @@
         <v>82.199934141051017</v>
       </c>
       <c r="F55" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="G55" s="5">
         <v>4</v>
       </c>
       <c r="H55" s="6">
-        <v>4.25</v>
-      </c>
-      <c r="I55" t="s">
-        <v>259</v>
+        <v>4.75</v>
+      </c>
+      <c r="I55" s="4">
+        <v>4.5</v>
       </c>
       <c r="J55" t="s">
+        <v>258</v>
+      </c>
+      <c r="K55" t="s">
         <v>92</v>
       </c>
-      <c r="K55" t="s">
+      <c r="L55" t="s">
         <v>234</v>
       </c>
     </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
         <v>172</v>
       </c>
@@ -3167,7 +3335,7 @@
         <v>27.586449091913924</v>
       </c>
       <c r="F56" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="G56">
         <v>4</v>
@@ -3175,17 +3343,20 @@
       <c r="H56" s="4">
         <v>2.25</v>
       </c>
-      <c r="I56" t="s">
-        <v>258</v>
+      <c r="I56" s="4">
+        <v>2.5</v>
       </c>
       <c r="J56" t="s">
+        <v>257</v>
+      </c>
+      <c r="K56" t="s">
         <v>173</v>
       </c>
-      <c r="K56" t="s">
+      <c r="L56" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
         <v>241</v>
       </c>
@@ -3202,25 +3373,28 @@
         <v>31.794797266204323</v>
       </c>
       <c r="F57" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="G57">
         <v>4</v>
       </c>
       <c r="H57" s="4">
-        <v>2.25</v>
-      </c>
-      <c r="I57" t="s">
-        <v>259</v>
+        <v>2.75</v>
+      </c>
+      <c r="I57" s="4">
+        <v>2.5</v>
       </c>
       <c r="J57" t="s">
+        <v>258</v>
+      </c>
+      <c r="K57" t="s">
         <v>173</v>
       </c>
-      <c r="K57" t="s">
+      <c r="L57" t="s">
         <v>242</v>
       </c>
     </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
         <v>55</v>
       </c>
@@ -3237,7 +3411,7 @@
         <v>34.41392280450988</v>
       </c>
       <c r="F58" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="G58">
         <v>1</v>
@@ -3245,17 +3419,20 @@
       <c r="H58" s="4">
         <v>10.75</v>
       </c>
-      <c r="I58" t="s">
-        <v>258</v>
+      <c r="I58" s="4">
+        <v>11</v>
       </c>
       <c r="J58" t="s">
+        <v>257</v>
+      </c>
+      <c r="K58" t="s">
         <v>56</v>
       </c>
-      <c r="K58" t="s">
+      <c r="L58" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
         <v>170</v>
       </c>
@@ -3272,25 +3449,28 @@
         <v>42.348273301512151</v>
       </c>
       <c r="F59" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="G59">
         <v>1</v>
       </c>
       <c r="H59" s="4">
-        <v>10.75</v>
-      </c>
-      <c r="I59" t="s">
-        <v>259</v>
+        <v>11.25</v>
+      </c>
+      <c r="I59" s="4">
+        <v>11</v>
       </c>
       <c r="J59" t="s">
+        <v>258</v>
+      </c>
+      <c r="K59" t="s">
         <v>56</v>
       </c>
-      <c r="K59" t="s">
+      <c r="L59" t="s">
         <v>171</v>
       </c>
     </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
         <v>73</v>
       </c>
@@ -3307,7 +3487,7 @@
         <v>7.4523853720017801</v>
       </c>
       <c r="F60" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="G60">
         <v>3</v>
@@ -3315,17 +3495,20 @@
       <c r="H60" s="4">
         <v>9.75</v>
       </c>
-      <c r="I60" t="s">
-        <v>258</v>
+      <c r="I60" s="4">
+        <v>10</v>
       </c>
       <c r="J60" t="s">
+        <v>257</v>
+      </c>
+      <c r="K60" t="s">
         <v>74</v>
       </c>
-      <c r="K60" t="s">
+      <c r="L60" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
         <v>199</v>
       </c>
@@ -3342,25 +3525,28 @@
         <v>27.822564706623993</v>
       </c>
       <c r="F61" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="G61">
         <v>3</v>
       </c>
       <c r="H61" s="4">
-        <v>9.75</v>
-      </c>
-      <c r="I61" t="s">
-        <v>259</v>
+        <v>10.25</v>
+      </c>
+      <c r="I61" s="4">
+        <v>10</v>
       </c>
       <c r="J61" t="s">
+        <v>258</v>
+      </c>
+      <c r="K61" t="s">
         <v>74</v>
       </c>
-      <c r="K61" t="s">
+      <c r="L61" t="s">
         <v>200</v>
       </c>
     </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
         <v>40</v>
       </c>
@@ -3377,7 +3563,7 @@
         <v>28.095263032292422</v>
       </c>
       <c r="F62" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="G62">
         <v>6</v>
@@ -3385,17 +3571,20 @@
       <c r="H62" s="4">
         <v>3.25</v>
       </c>
-      <c r="I62" t="s">
-        <v>258</v>
+      <c r="I62" s="4">
+        <v>3.5</v>
       </c>
       <c r="J62" t="s">
+        <v>257</v>
+      </c>
+      <c r="K62" t="s">
         <v>41</v>
       </c>
-      <c r="K62" t="s">
+      <c r="L62" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
         <v>220</v>
       </c>
@@ -3412,25 +3601,28 @@
         <v>24.35480553782504</v>
       </c>
       <c r="F63" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="G63">
         <v>6</v>
       </c>
       <c r="H63" s="4">
-        <v>3.25</v>
-      </c>
-      <c r="I63" t="s">
-        <v>259</v>
+        <v>3.75</v>
+      </c>
+      <c r="I63" s="4">
+        <v>3.5</v>
       </c>
       <c r="J63" t="s">
+        <v>258</v>
+      </c>
+      <c r="K63" t="s">
         <v>41</v>
       </c>
-      <c r="K63" t="s">
+      <c r="L63" t="s">
         <v>221</v>
       </c>
     </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
         <v>106</v>
       </c>
@@ -3447,7 +3639,7 @@
         <v>28.481809113501111</v>
       </c>
       <c r="F64" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="G64">
         <v>2</v>
@@ -3455,17 +3647,20 @@
       <c r="H64" s="4">
         <v>9.25</v>
       </c>
-      <c r="I64" t="s">
-        <v>258</v>
+      <c r="I64" s="4">
+        <v>9.5</v>
       </c>
       <c r="J64" t="s">
+        <v>257</v>
+      </c>
+      <c r="K64" t="s">
         <v>107</v>
       </c>
-      <c r="K64" t="s">
+      <c r="L64" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
         <v>209</v>
       </c>
@@ -3482,25 +3677,28 @@
         <v>2.6050491583832489</v>
       </c>
       <c r="F65" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="G65">
         <v>2</v>
       </c>
       <c r="H65" s="4">
-        <v>9.25</v>
-      </c>
-      <c r="I65" t="s">
-        <v>259</v>
+        <v>9.75</v>
+      </c>
+      <c r="I65" s="4">
+        <v>9.5</v>
       </c>
       <c r="J65" t="s">
+        <v>258</v>
+      </c>
+      <c r="K65" t="s">
         <v>107</v>
       </c>
-      <c r="K65" t="s">
+      <c r="L65" t="s">
         <v>210</v>
       </c>
     </row>
-    <row r="66" spans="1:11" ht="16" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
         <v>85</v>
       </c>
@@ -3517,7 +3715,7 @@
         <v>86.451916900812648</v>
       </c>
       <c r="F66" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="G66" s="5">
         <v>5</v>
@@ -3525,17 +3723,20 @@
       <c r="H66" s="6">
         <v>8.75</v>
       </c>
-      <c r="I66" t="s">
-        <v>258</v>
+      <c r="I66" s="4">
+        <v>9</v>
       </c>
       <c r="J66" t="s">
+        <v>257</v>
+      </c>
+      <c r="K66" t="s">
         <v>86</v>
       </c>
-      <c r="K66" t="s">
+      <c r="L66" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="67" spans="1:11" ht="16" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
         <v>119</v>
       </c>
@@ -3552,25 +3753,28 @@
         <v>62.063205040521986</v>
       </c>
       <c r="F67" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="G67" s="5">
         <v>5</v>
       </c>
       <c r="H67" s="6">
-        <v>8.75</v>
-      </c>
-      <c r="I67" t="s">
-        <v>259</v>
+        <v>9.25</v>
+      </c>
+      <c r="I67" s="4">
+        <v>9</v>
       </c>
       <c r="J67" t="s">
+        <v>258</v>
+      </c>
+      <c r="K67" t="s">
         <v>86</v>
       </c>
-      <c r="K67" t="s">
+      <c r="L67" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
         <v>151</v>
       </c>
@@ -3587,7 +3791,7 @@
         <v>82.691400698566227</v>
       </c>
       <c r="F68" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="G68">
         <v>2</v>
@@ -3595,17 +3799,20 @@
       <c r="H68" s="4">
         <v>3.25</v>
       </c>
-      <c r="I68" t="s">
-        <v>258</v>
+      <c r="I68" s="4">
+        <v>3.5</v>
       </c>
       <c r="J68" t="s">
+        <v>257</v>
+      </c>
+      <c r="K68" t="s">
         <v>152</v>
       </c>
-      <c r="K68" t="s">
+      <c r="L68" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
         <v>231</v>
       </c>
@@ -3622,25 +3829,28 @@
         <v>90.846799109162362</v>
       </c>
       <c r="F69" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="G69">
         <v>2</v>
       </c>
       <c r="H69" s="4">
-        <v>3.25</v>
-      </c>
-      <c r="I69" t="s">
-        <v>259</v>
+        <v>3.75</v>
+      </c>
+      <c r="I69" s="4">
+        <v>3.5</v>
       </c>
       <c r="J69" t="s">
+        <v>258</v>
+      </c>
+      <c r="K69" t="s">
         <v>152</v>
       </c>
-      <c r="K69" t="s">
+      <c r="L69" t="s">
         <v>232</v>
       </c>
     </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
         <v>123</v>
       </c>
@@ -3657,7 +3867,7 @@
         <v>63.714064709320674</v>
       </c>
       <c r="F70" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="G70">
         <v>3</v>
@@ -3665,17 +3875,20 @@
       <c r="H70" s="4">
         <v>7.75</v>
       </c>
-      <c r="I70" t="s">
-        <v>258</v>
+      <c r="I70" s="4">
+        <v>8</v>
       </c>
       <c r="J70" t="s">
+        <v>257</v>
+      </c>
+      <c r="K70" t="s">
         <v>124</v>
       </c>
-      <c r="K70" t="s">
+      <c r="L70" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
         <v>195</v>
       </c>
@@ -3692,25 +3905,28 @@
         <v>16.209351737438322</v>
       </c>
       <c r="F71" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="G71">
         <v>3</v>
       </c>
       <c r="H71" s="4">
-        <v>7.75</v>
-      </c>
-      <c r="I71" t="s">
-        <v>259</v>
+        <v>8.25</v>
+      </c>
+      <c r="I71" s="4">
+        <v>8</v>
       </c>
       <c r="J71" t="s">
+        <v>258</v>
+      </c>
+      <c r="K71" t="s">
         <v>124</v>
       </c>
-      <c r="K71" t="s">
+      <c r="L71" t="s">
         <v>196</v>
       </c>
     </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
         <v>22</v>
       </c>
@@ -3727,7 +3943,7 @@
         <v>91.039372032692327</v>
       </c>
       <c r="F72" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="G72">
         <v>6</v>
@@ -3735,17 +3951,20 @@
       <c r="H72" s="4">
         <v>4.25</v>
       </c>
-      <c r="I72" t="s">
-        <v>258</v>
+      <c r="I72" s="4">
+        <v>4.5</v>
       </c>
       <c r="J72" t="s">
+        <v>257</v>
+      </c>
+      <c r="K72" t="s">
         <v>23</v>
       </c>
-      <c r="K72" t="s">
+      <c r="L72" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
         <v>139</v>
       </c>
@@ -3762,25 +3981,28 @@
         <v>87.753240730883562</v>
       </c>
       <c r="F73" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="G73">
         <v>6</v>
       </c>
       <c r="H73" s="4">
-        <v>4.25</v>
-      </c>
-      <c r="I73" t="s">
-        <v>259</v>
+        <v>4.75</v>
+      </c>
+      <c r="I73" s="4">
+        <v>4.5</v>
       </c>
       <c r="J73" t="s">
+        <v>258</v>
+      </c>
+      <c r="K73" t="s">
         <v>23</v>
       </c>
-      <c r="K73" t="s">
+      <c r="L73" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
         <v>58</v>
       </c>
@@ -3797,7 +4019,7 @@
         <v>7.3308438256118018</v>
       </c>
       <c r="F74" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="G74">
         <v>4</v>
@@ -3805,17 +4027,20 @@
       <c r="H74" s="4">
         <v>1.25</v>
       </c>
-      <c r="I74" t="s">
-        <v>258</v>
+      <c r="I74" s="4">
+        <v>1.5</v>
       </c>
       <c r="J74" t="s">
+        <v>257</v>
+      </c>
+      <c r="K74" t="s">
         <v>59</v>
       </c>
-      <c r="K74" t="s">
+      <c r="L74" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
         <v>112</v>
       </c>
@@ -3832,25 +4057,28 @@
         <v>17.386429005938332</v>
       </c>
       <c r="F75" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="G75">
         <v>4</v>
       </c>
       <c r="H75" s="4">
-        <v>1.25</v>
-      </c>
-      <c r="I75" t="s">
-        <v>259</v>
+        <v>1.75</v>
+      </c>
+      <c r="I75" s="4">
+        <v>1.5</v>
       </c>
       <c r="J75" t="s">
+        <v>258</v>
+      </c>
+      <c r="K75" t="s">
         <v>59</v>
       </c>
-      <c r="K75" t="s">
+      <c r="L75" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
         <v>126</v>
       </c>
@@ -3867,7 +4095,7 @@
         <v>71.272450294902484</v>
       </c>
       <c r="F76" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="G76">
         <v>3</v>
@@ -3875,17 +4103,20 @@
       <c r="H76" s="4">
         <v>8.75</v>
       </c>
-      <c r="I76" t="s">
-        <v>258</v>
+      <c r="I76" s="4">
+        <v>9</v>
       </c>
       <c r="J76" t="s">
+        <v>257</v>
+      </c>
+      <c r="K76" t="s">
         <v>127</v>
       </c>
-      <c r="K76" t="s">
+      <c r="L76" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
         <v>215</v>
       </c>
@@ -3902,22 +4133,25 @@
         <v>29.239995978007421</v>
       </c>
       <c r="F77" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="G77">
         <v>3</v>
       </c>
       <c r="H77" s="4">
-        <v>8.75</v>
-      </c>
-      <c r="I77" t="s">
-        <v>259</v>
+        <v>9.25</v>
+      </c>
+      <c r="I77" s="4">
+        <v>9</v>
       </c>
       <c r="J77" t="s">
+        <v>258</v>
+      </c>
+      <c r="K77" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
         <v>28</v>
       </c>
@@ -3934,7 +4168,7 @@
         <v>15.926417401250708</v>
       </c>
       <c r="F78" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="G78">
         <v>2</v>
@@ -3942,17 +4176,20 @@
       <c r="H78" s="4">
         <v>11.25</v>
       </c>
-      <c r="I78" t="s">
-        <v>258</v>
+      <c r="I78" s="4">
+        <v>11.5</v>
       </c>
       <c r="J78" t="s">
+        <v>257</v>
+      </c>
+      <c r="K78" t="s">
         <v>29</v>
       </c>
-      <c r="K78" t="s">
+      <c r="L78" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="79" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
         <v>216</v>
       </c>
@@ -3969,25 +4206,28 @@
         <v>17.244870680854447</v>
       </c>
       <c r="F79" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="G79">
         <v>2</v>
       </c>
       <c r="H79" s="4">
-        <v>11.25</v>
-      </c>
-      <c r="I79" t="s">
-        <v>259</v>
+        <v>11.75</v>
+      </c>
+      <c r="I79" s="4">
+        <v>11.5</v>
       </c>
       <c r="J79" t="s">
+        <v>258</v>
+      </c>
+      <c r="K79" t="s">
         <v>29</v>
       </c>
-      <c r="K79" t="s">
+      <c r="L79" t="s">
         <v>217</v>
       </c>
     </row>
-    <row r="80" spans="1:11" ht="16" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
         <v>19</v>
       </c>
@@ -4004,7 +4244,7 @@
         <v>70.136025579964368</v>
       </c>
       <c r="F80" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="G80" s="5">
         <v>6</v>
@@ -4012,17 +4252,20 @@
       <c r="H80" s="6">
         <v>8.25</v>
       </c>
-      <c r="I80" t="s">
-        <v>258</v>
+      <c r="I80" s="4">
+        <v>8.5</v>
       </c>
       <c r="J80" t="s">
+        <v>257</v>
+      </c>
+      <c r="K80" t="s">
         <v>20</v>
       </c>
-      <c r="K80" t="s">
+      <c r="L80" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="81" spans="1:11" ht="16" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
         <v>141</v>
       </c>
@@ -4039,25 +4282,28 @@
         <v>82.356731720959743</v>
       </c>
       <c r="F81" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="G81" s="5">
         <v>6</v>
       </c>
       <c r="H81" s="6">
-        <v>8.25</v>
-      </c>
-      <c r="I81" t="s">
-        <v>259</v>
+        <v>8.75</v>
+      </c>
+      <c r="I81" s="4">
+        <v>8.5</v>
       </c>
       <c r="J81" t="s">
+        <v>258</v>
+      </c>
+      <c r="K81" t="s">
         <v>20</v>
       </c>
-      <c r="K81" t="s">
+      <c r="L81" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="82" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
         <v>88</v>
       </c>
@@ -4074,7 +4320,7 @@
         <v>88.090495681546784</v>
       </c>
       <c r="F82" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="G82">
         <v>3</v>
@@ -4082,17 +4328,20 @@
       <c r="H82" s="4">
         <v>3.75</v>
       </c>
-      <c r="I82" t="s">
-        <v>258</v>
+      <c r="I82" s="4">
+        <v>4</v>
       </c>
       <c r="J82" t="s">
+        <v>257</v>
+      </c>
+      <c r="K82" t="s">
         <v>89</v>
       </c>
-      <c r="K82" t="s">
+      <c r="L82" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="83" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
         <v>132</v>
       </c>
@@ -4109,25 +4358,28 @@
         <v>76.234535313919451</v>
       </c>
       <c r="F83" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="G83">
         <v>3</v>
       </c>
       <c r="H83" s="4">
-        <v>3.75</v>
-      </c>
-      <c r="I83" t="s">
-        <v>259</v>
+        <v>4.25</v>
+      </c>
+      <c r="I83" s="4">
+        <v>4</v>
       </c>
       <c r="J83" t="s">
+        <v>258</v>
+      </c>
+      <c r="K83" t="s">
         <v>89</v>
       </c>
-      <c r="K83" t="s">
+      <c r="L83" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="84" spans="1:11" ht="16" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
         <v>4</v>
       </c>
@@ -4144,7 +4396,7 @@
         <v>69.246828321191188</v>
       </c>
       <c r="F84" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="G84" s="5">
         <v>5</v>
@@ -4152,17 +4404,20 @@
       <c r="H84" s="6">
         <v>6.75</v>
       </c>
-      <c r="I84" t="s">
-        <v>258</v>
+      <c r="I84" s="4">
+        <v>7</v>
       </c>
       <c r="J84" t="s">
+        <v>257</v>
+      </c>
+      <c r="K84" t="s">
         <v>5</v>
       </c>
-      <c r="K84" t="s">
+      <c r="L84" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="85" spans="1:11" ht="16" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
         <v>193</v>
       </c>
@@ -4179,25 +4434,28 @@
         <v>100</v>
       </c>
       <c r="F85" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="G85" s="5">
         <v>5</v>
       </c>
       <c r="H85" s="6">
-        <v>6.75</v>
-      </c>
-      <c r="I85" t="s">
-        <v>259</v>
+        <v>7.25</v>
+      </c>
+      <c r="I85" s="4">
+        <v>7</v>
       </c>
       <c r="J85" t="s">
+        <v>258</v>
+      </c>
+      <c r="K85" t="s">
         <v>5</v>
       </c>
-      <c r="K85" t="s">
+      <c r="L85" t="s">
         <v>194</v>
       </c>
     </row>
-    <row r="86" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
         <v>10</v>
       </c>
@@ -4214,7 +4472,7 @@
         <v>90.402799899656316</v>
       </c>
       <c r="F86" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="G86">
         <v>7</v>
@@ -4222,17 +4480,20 @@
       <c r="H86" s="4">
         <v>3.75</v>
       </c>
-      <c r="I86" t="s">
-        <v>258</v>
+      <c r="I86" s="4">
+        <v>4</v>
       </c>
       <c r="J86" t="s">
+        <v>257</v>
+      </c>
+      <c r="K86" t="s">
         <v>11</v>
       </c>
-      <c r="K86" t="s">
+      <c r="L86" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="87" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
         <v>235</v>
       </c>
@@ -4249,25 +4510,28 @@
         <v>91.374072387276286</v>
       </c>
       <c r="F87" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="G87">
         <v>7</v>
       </c>
       <c r="H87" s="4">
-        <v>3.75</v>
-      </c>
-      <c r="I87" t="s">
-        <v>259</v>
+        <v>4.25</v>
+      </c>
+      <c r="I87" s="4">
+        <v>4</v>
       </c>
       <c r="J87" t="s">
+        <v>258</v>
+      </c>
+      <c r="K87" t="s">
         <v>11</v>
       </c>
-      <c r="K87" t="s">
+      <c r="L87" t="s">
         <v>236</v>
       </c>
     </row>
-    <row r="88" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
         <v>154</v>
       </c>
@@ -4284,7 +4548,7 @@
         <v>70.31336042945496</v>
       </c>
       <c r="F88" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="G88">
         <v>5</v>
@@ -4292,17 +4556,20 @@
       <c r="H88" s="4">
         <v>3.75</v>
       </c>
-      <c r="I88" t="s">
-        <v>258</v>
+      <c r="I88" s="4">
+        <v>4</v>
       </c>
       <c r="J88" t="s">
+        <v>257</v>
+      </c>
+      <c r="K88" t="s">
         <v>155</v>
       </c>
-      <c r="K88" t="s">
+      <c r="L88" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="89" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
         <v>249</v>
       </c>
@@ -4319,25 +4586,28 @@
         <v>71.73785772365683</v>
       </c>
       <c r="F89" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="G89">
         <v>5</v>
       </c>
       <c r="H89" s="4">
-        <v>3.75</v>
-      </c>
-      <c r="I89" t="s">
-        <v>259</v>
+        <v>4.25</v>
+      </c>
+      <c r="I89" s="4">
+        <v>4</v>
       </c>
       <c r="J89" t="s">
+        <v>258</v>
+      </c>
+      <c r="K89" t="s">
         <v>155</v>
       </c>
-      <c r="K89" t="s">
+      <c r="L89" t="s">
         <v>250</v>
       </c>
     </row>
-    <row r="90" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
         <v>98</v>
       </c>
@@ -4354,7 +4624,7 @@
         <v>20.566718883500101</v>
       </c>
       <c r="F90" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="G90">
         <v>1</v>
@@ -4362,17 +4632,20 @@
       <c r="H90" s="4">
         <v>9.75</v>
       </c>
-      <c r="I90" t="s">
-        <v>258</v>
+      <c r="I90" s="4">
+        <v>10</v>
       </c>
       <c r="J90" t="s">
+        <v>257</v>
+      </c>
+      <c r="K90" t="s">
         <v>99</v>
       </c>
-      <c r="K90" t="s">
+      <c r="L90" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="91" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
         <v>201</v>
       </c>
@@ -4389,25 +4662,28 @@
         <v>1.694477667962744</v>
       </c>
       <c r="F91" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="G91">
         <v>1</v>
       </c>
       <c r="H91" s="4">
-        <v>9.75</v>
-      </c>
-      <c r="I91" t="s">
-        <v>259</v>
+        <v>10.25</v>
+      </c>
+      <c r="I91" s="4">
+        <v>10</v>
       </c>
       <c r="J91" t="s">
+        <v>258</v>
+      </c>
+      <c r="K91" t="s">
         <v>99</v>
       </c>
-      <c r="K91" t="s">
+      <c r="L91" t="s">
         <v>202</v>
       </c>
     </row>
-    <row r="92" spans="1:11" ht="16" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
         <v>49</v>
       </c>
@@ -4424,7 +4700,7 @@
         <v>40.08745097866435</v>
       </c>
       <c r="F92" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="G92" s="5">
         <v>5</v>
@@ -4432,17 +4708,20 @@
       <c r="H92" s="6">
         <v>7.75</v>
       </c>
-      <c r="I92" t="s">
-        <v>258</v>
+      <c r="I92" s="4">
+        <v>8</v>
       </c>
       <c r="J92" t="s">
+        <v>257</v>
+      </c>
+      <c r="K92" t="s">
         <v>50</v>
       </c>
-      <c r="K92" t="s">
+      <c r="L92" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="93" spans="1:11" ht="16" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
         <v>237</v>
       </c>
@@ -4459,25 +4738,28 @@
         <v>25.517397307668439</v>
       </c>
       <c r="F93" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="G93" s="5">
         <v>5</v>
       </c>
       <c r="H93" s="6">
-        <v>7.75</v>
-      </c>
-      <c r="I93" t="s">
-        <v>259</v>
+        <v>8.25</v>
+      </c>
+      <c r="I93" s="4">
+        <v>8</v>
       </c>
       <c r="J93" t="s">
+        <v>258</v>
+      </c>
+      <c r="K93" t="s">
         <v>50</v>
       </c>
-      <c r="K93" t="s">
+      <c r="L93" t="s">
         <v>238</v>
       </c>
     </row>
-    <row r="94" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
         <v>103</v>
       </c>
@@ -4494,7 +4776,7 @@
         <v>21.41000915763459</v>
       </c>
       <c r="F94" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="G94">
         <v>2</v>
@@ -4502,17 +4784,20 @@
       <c r="H94" s="4">
         <v>1.25</v>
       </c>
-      <c r="I94" t="s">
-        <v>258</v>
+      <c r="I94" s="4">
+        <v>1.5</v>
       </c>
       <c r="J94" t="s">
+        <v>257</v>
+      </c>
+      <c r="K94" t="s">
         <v>104</v>
       </c>
-      <c r="K94" t="s">
+      <c r="L94" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="95" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
         <v>183</v>
       </c>
@@ -4529,25 +4814,28 @@
         <v>31.11189079955345</v>
       </c>
       <c r="F95" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="G95">
         <v>2</v>
       </c>
       <c r="H95" s="4">
-        <v>1.25</v>
-      </c>
-      <c r="I95" t="s">
-        <v>259</v>
+        <v>1.75</v>
+      </c>
+      <c r="I95" s="4">
+        <v>1.5</v>
       </c>
       <c r="J95" t="s">
+        <v>258</v>
+      </c>
+      <c r="K95" t="s">
         <v>104</v>
       </c>
-      <c r="K95" t="s">
+      <c r="L95" t="s">
         <v>184</v>
       </c>
     </row>
-    <row r="96" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
         <v>34</v>
       </c>
@@ -4564,7 +4852,7 @@
         <v>73.711447938672819</v>
       </c>
       <c r="F96" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="G96">
         <v>4</v>
@@ -4572,17 +4860,20 @@
       <c r="H96" s="4">
         <v>7.25</v>
       </c>
-      <c r="I96" t="s">
-        <v>258</v>
+      <c r="I96" s="4">
+        <v>7.5</v>
       </c>
       <c r="J96" t="s">
+        <v>257</v>
+      </c>
+      <c r="K96" t="s">
         <v>35</v>
       </c>
-      <c r="K96" t="s">
+      <c r="L96" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="97" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
         <v>222</v>
       </c>
@@ -4599,25 +4890,28 @@
         <v>59.039227222849846</v>
       </c>
       <c r="F97" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="G97">
         <v>4</v>
       </c>
       <c r="H97" s="4">
-        <v>7.25</v>
-      </c>
-      <c r="I97" t="s">
-        <v>259</v>
+        <v>7.75</v>
+      </c>
+      <c r="I97" s="4">
+        <v>7.5</v>
       </c>
       <c r="J97" t="s">
+        <v>258</v>
+      </c>
+      <c r="K97" t="s">
         <v>35</v>
       </c>
-      <c r="K97" t="s">
+      <c r="L97" t="s">
         <v>223</v>
       </c>
     </row>
-    <row r="98" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
         <v>157</v>
       </c>
@@ -4634,7 +4928,7 @@
         <v>71.379760457674905</v>
       </c>
       <c r="F98" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="G98">
         <v>2</v>
@@ -4642,17 +4936,20 @@
       <c r="H98" s="4">
         <v>5.25</v>
       </c>
-      <c r="I98" t="s">
-        <v>258</v>
+      <c r="I98" s="4">
+        <v>5.5</v>
       </c>
       <c r="J98" t="s">
+        <v>257</v>
+      </c>
+      <c r="K98" t="s">
         <v>158</v>
       </c>
-      <c r="K98" t="s">
+      <c r="L98" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="99" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
         <v>191</v>
       </c>
@@ -4669,25 +4966,28 @@
         <v>22.828459994877733</v>
       </c>
       <c r="F99" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="G99">
         <v>2</v>
       </c>
       <c r="H99" s="4">
-        <v>5.25</v>
-      </c>
-      <c r="I99" t="s">
-        <v>259</v>
+        <v>5.75</v>
+      </c>
+      <c r="I99" s="4">
+        <v>5.5</v>
       </c>
       <c r="J99" t="s">
+        <v>258</v>
+      </c>
+      <c r="K99" t="s">
         <v>158</v>
       </c>
-      <c r="K99" t="s">
+      <c r="L99" t="s">
         <v>192</v>
       </c>
     </row>
-    <row r="100" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
         <v>16</v>
       </c>
@@ -4704,7 +5004,7 @@
         <v>82.973232077129083</v>
       </c>
       <c r="F100" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="G100">
         <v>3</v>
@@ -4712,17 +5012,20 @@
       <c r="H100" s="4">
         <v>2.75</v>
       </c>
-      <c r="I100" t="s">
-        <v>258</v>
+      <c r="I100" s="4">
+        <v>3</v>
       </c>
       <c r="J100" t="s">
+        <v>257</v>
+      </c>
+      <c r="K100" t="s">
         <v>17</v>
       </c>
-      <c r="K100" t="s">
+      <c r="L100" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="101" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
         <v>218</v>
       </c>
@@ -4739,27 +5042,30 @@
         <v>84.240174618467549</v>
       </c>
       <c r="F101" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="G101">
         <v>3</v>
       </c>
       <c r="H101" s="4">
-        <v>2.75</v>
-      </c>
-      <c r="I101" t="s">
-        <v>259</v>
+        <v>3.25</v>
+      </c>
+      <c r="I101" s="4">
+        <v>3</v>
       </c>
       <c r="J101" t="s">
+        <v>258</v>
+      </c>
+      <c r="K101" t="s">
         <v>17</v>
       </c>
-      <c r="K101" t="s">
+      <c r="L101" t="s">
         <v>219</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:K101">
-    <sortCondition ref="J1"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:L101">
+    <sortCondition ref="K1"/>
   </sortState>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
